--- a/correlation/volvo/minutely/correlation/volvo_correlation_volume_with_semantics.xlsx
+++ b/correlation/volvo/minutely/correlation/volvo_correlation_volume_with_semantics.xlsx
@@ -429,16 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0038569116996455</v>
+        <v>0.002131100517098124</v>
       </c>
       <c r="D2">
-        <v>0.003856931501091196</v>
+        <v>0.002147360068136157</v>
+      </c>
+      <c r="E2">
+        <v>-0.002824771446505591</v>
       </c>
       <c r="F2">
-        <v>-0.000216678413319252</v>
+        <v>0.001056514738018476</v>
+      </c>
+      <c r="G2">
+        <v>0.002727251968316036</v>
       </c>
       <c r="H2">
-        <v>-0.001814824891544542</v>
+        <v>-0.003619521398293137</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -446,19 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0038569116996455</v>
+        <v>0.002131100517098124</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.999995468303009</v>
+        <v>0.999966159015089</v>
+      </c>
+      <c r="E3">
+        <v>0.4102864448906267</v>
       </c>
       <c r="F3">
-        <v>-0.05297313995463744</v>
+        <v>0.5540724817217886</v>
+      </c>
+      <c r="G3">
+        <v>0.4009650571265488</v>
       </c>
       <c r="H3">
-        <v>-0.4677005313153113</v>
+        <v>0.3938752452646992</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -466,66 +478,126 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003856931501091196</v>
+        <v>0.002147360068136157</v>
       </c>
       <c r="C4">
-        <v>0.999995468303009</v>
+        <v>0.999966159015089</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>0.4082676476723503</v>
+      </c>
       <c r="F4">
-        <v>-0.05597921546857004</v>
+        <v>0.5541405501388015</v>
+      </c>
+      <c r="G4">
+        <v>0.4082268108532458</v>
       </c>
       <c r="H4">
-        <v>-0.4703593912450411</v>
+        <v>0.3950559733732229</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>-0.002824771446505591</v>
+      </c>
+      <c r="C5">
+        <v>0.4102864448906267</v>
+      </c>
+      <c r="D5">
+        <v>0.4082676476723503</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.4763411803215765</v>
+      </c>
+      <c r="G5">
+        <v>-7.703863487530179E-06</v>
+      </c>
+      <c r="H5">
+        <v>0.3272864544755419</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.000216678413319252</v>
+        <v>0.001056514738018476</v>
       </c>
       <c r="C6">
-        <v>-0.05297313995463744</v>
+        <v>0.5540724817217886</v>
       </c>
       <c r="D6">
-        <v>-0.05597921546857004</v>
+        <v>0.5541405501388015</v>
+      </c>
+      <c r="E6">
+        <v>0.4763411803215765</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>0.4279731681130544</v>
+      </c>
       <c r="H6">
-        <v>0.9074215242323035</v>
+        <v>0.3150468389150443</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0.002727251968316036</v>
+      </c>
+      <c r="C7">
+        <v>0.4009650571265488</v>
+      </c>
+      <c r="D7">
+        <v>0.4082268108532458</v>
+      </c>
+      <c r="E7">
+        <v>-7.703863487530179E-06</v>
+      </c>
+      <c r="F7">
+        <v>0.4279731681130544</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.3041993321953193</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.001814824891544542</v>
+        <v>-0.003619521398293137</v>
       </c>
       <c r="C8">
-        <v>-0.4677005313153113</v>
+        <v>0.3938752452646992</v>
       </c>
       <c r="D8">
-        <v>-0.4703593912450411</v>
+        <v>0.3950559733732229</v>
+      </c>
+      <c r="E8">
+        <v>0.3272864544755419</v>
       </c>
       <c r="F8">
-        <v>0.9074215242323035</v>
+        <v>0.3150468389150443</v>
+      </c>
+      <c r="G8">
+        <v>0.3041993321953193</v>
       </c>
       <c r="H8">
         <v>1</v>
